--- a/biology/Médecine/Manfred_Stürzbecher/Manfred_Stürzbecher.xlsx
+++ b/biology/Médecine/Manfred_Stürzbecher/Manfred_Stürzbecher.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Manfred_St%C3%BCrzbecher</t>
+          <t>Manfred_Stürzbecher</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Manfred Stürzbecher (né le 18 octobre 1928 à Berlin et mort le 16 septembre 2020) est un historien médical et médecin allemand.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Manfred_St%C3%BCrzbecher</t>
+          <t>Manfred_Stürzbecher</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Manfred Stürzbecher étudie d'abord l'histoire, puis la médecine à la FU Berlin et obtient son doctorat dans les deux matières. Il est également pharmacien sans licence. Sa première thèse d'histoire est déjà une œuvre médico-historique (la lutte contre la baisse de la natalité et la mortalité infantile comme en témoignent les débats du Reichstag 1900-1930). Sa deuxième thèse de médecine sur les soins médicaux et l'état de santé de la population berlinoise au XVIIIe siècle a un thème médico-historique.
 Manfred Stürzbecher occupe plusieurs postes professionnels : il est médecin dans le service judiciaire, directeur adjoint de l'Académie de médecine d'État à Hambourg, consultant pour les statistiques médicales et la documentation médicale auprès de la plus haute autorité sanitaire de l'État à Berlin, chef de la centrale médicale de Berlin Bibliothèque et enfin agent de santé publique à Berlin-Steglitz.
-Stürzbecher écrit plusieurs livres et collections et plus de 500 articles sur l'histoire médicale. Pendant longtemps, il est président de la Société berlinoise d'histoire de la médecine (de). Il est l'un des meilleurs connaisseurs de l'histoire de la médecine à Berlin[1].
+Stürzbecher écrit plusieurs livres et collections et plus de 500 articles sur l'histoire médicale. Pendant longtemps, il est président de la Société berlinoise d'histoire de la médecine (de). Il est l'un des meilleurs connaisseurs de l'histoire de la médecine à Berlin.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Manfred_St%C3%BCrzbecher</t>
+          <t>Manfred_Stürzbecher</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,10 +558,12 @@
           <t>Prix</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Société berlinoise d'histoire de la médecine (de) : Médaille Paul-Diepgen (de)
-Plaque Fontane de l'Association historique d'État pour la Marche de Brandebourg (de) (1989)[2]</t>
+Plaque Fontane de l'Association historique d'État pour la Marche de Brandebourg (de) (1989)</t>
         </is>
       </c>
     </row>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Manfred_St%C3%BCrzbecher</t>
+          <t>Manfred_Stürzbecher</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Travaux (sélection)</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Beiträge zur Berliner Medizingeschichte. Quellen und Studien zur Geschichte des Gesundheitswesens vom 17. bis zum 19. Jahrhundert. De Gruyter, Berlin 1966.
 als Hrsg.: Deutsche Ärztebriefe des 19. Jahrhunderts. Musterschmidt, Göttingen/ Frankfurt am Main/ Zürich 1975,  (ISBN 3-7881-1219-0).
